--- a/data/trans_dic/P44-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P44-Edad-trans_dic.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_dic/P44-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P44-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,26%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,57%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>3,59; 10,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>5,44; 11,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>28,68; 69,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>4,47; 10,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>1,87; 6,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>19,64; 27,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>4,62; 9,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>4,02; 7,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>26,05; 48,86</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,5%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,04%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,79%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>6,74; 13,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>8,36; 14,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>29,99; 37,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>5,26; 10,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>5,32; 10,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>27,22; 33,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>6,82; 10,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>7,53; 11,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>29,48; 34,25</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,02%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>8,46; 14,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>11,64; 17,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>38,8; 44,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>5,64; 9,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>7,0; 11,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>17,93; 33,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>7,43; 10,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>9,8; 13,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>27,47; 37,26</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,5%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,27%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,01%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>7,78; 11,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>10,03; 13,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>35,39; 46,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>6,15; 8,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>6,16; 8,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>22,48; 30,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>7,31; 9,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>8,46; 10,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>29,59; 35,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P44-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P44-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>40,26%</t>
+          <t>62,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>24,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>32,57%</t>
+          <t>48,83%</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,68; 69,54</t>
+          <t>29,02; 90,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,64; 27,76</t>
+          <t>20,09; 28,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1055,14 +1055,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,05; 48,86</t>
+          <t>26,61; 77,17</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>33,5%</t>
+          <t>33,89%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>30,04%</t>
+          <t>30,3%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>31,79%</t>
+          <t>32,14%</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,99; 37,49</t>
+          <t>30,34; 37,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,22; 33,14</t>
+          <t>27,46; 33,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1165,14 +1165,14 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>29,48; 34,25</t>
+          <t>29,85; 34,65</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,49%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>41,85%</t>
+          <t>45,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>28,63%</t>
+          <t>23,99%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>32,22%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,46; 14,07</t>
+          <t>7,25; 16,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,64; 17,19</t>
+          <t>9,81; 17,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>38,8; 44,97</t>
+          <t>41,79; 50,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,64; 9,55</t>
+          <t>6,69; 12,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,0; 11,36</t>
+          <t>6,05; 12,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,93; 33,12</t>
+          <t>8,81; 37,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,43; 10,65</t>
+          <t>7,9; 12,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,8; 13,29</t>
+          <t>8,92; 13,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27,47; 37,26</t>
+          <t>16,64; 41,98</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>15,86%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>38,5%</t>
+          <t>36,17%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>33,01%</t>
+          <t>30,67%</t>
         </is>
       </c>
     </row>
@@ -1345,59 +1345,169 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>7,63; 16,04</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>12,0; 20,29</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>31,58; 40,74</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3,37; 8,18</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6,22; 12,71</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>23,83; 29,98</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5,61; 10,22</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>9,63; 14,65</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>28,01; 33,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9,53%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>11,78%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>45,64%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7,5%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7,48%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>26,52%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>8,41%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>9,49%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>35,81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>7,78; 11,47</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>10,03; 13,54</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>35,39; 46,4</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>35,72; 67,92</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>6,15; 8,98</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>6,16; 8,99</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>22,48; 30,71</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>17,15; 30,47</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>7,31; 9,67</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>8,46; 10,75</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>29,59; 35,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>29,29; 48,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1408,6 +1518,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P44-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P44-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,59; 10,47</t>
+          <t>3,21; 10,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,44; 11,4</t>
+          <t>5,18; 11,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,02; 90,0</t>
+          <t>28,84; 87,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,47; 10,93</t>
+          <t>4,54; 10,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 6,24</t>
+          <t>1,67; 6,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,09; 28,34</t>
+          <t>20,95; 28,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,62; 9,19</t>
+          <t>4,77; 9,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,88</t>
+          <t>4,19; 8,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,61; 77,17</t>
+          <t>26,41; 77,8</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,74; 13,17</t>
+          <t>6,72; 13,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,36; 14,49</t>
+          <t>8,22; 14,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,34; 37,84</t>
+          <t>29,93; 37,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,26; 10,81</t>
+          <t>5,51; 11,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,32; 10,35</t>
+          <t>5,24; 10,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,46; 33,53</t>
+          <t>27,04; 33,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,82; 10,94</t>
+          <t>6,8; 11,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,53; 11,35</t>
+          <t>7,58; 11,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>29,85; 34,65</t>
+          <t>29,72; 34,78</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,25; 16,03</t>
+          <t>7,14; 15,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,81; 17,62</t>
+          <t>9,75; 17,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>41,79; 50,0</t>
+          <t>41,8; 50,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,69; 12,92</t>
+          <t>6,8; 12,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,05; 12,1</t>
+          <t>6,14; 12,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,81; 37,57</t>
+          <t>7,91; 37,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,9; 12,99</t>
+          <t>7,68; 12,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,92; 13,72</t>
+          <t>8,82; 13,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,64; 41,98</t>
+          <t>15,95; 41,71</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,63; 16,04</t>
+          <t>7,54; 16,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,0; 20,29</t>
+          <t>12,08; 20,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,58; 40,74</t>
+          <t>31,62; 41,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,37; 8,18</t>
+          <t>3,43; 8,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,22; 12,71</t>
+          <t>6,26; 12,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,83; 29,98</t>
+          <t>23,69; 29,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,61; 10,22</t>
+          <t>5,62; 10,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,63; 14,65</t>
+          <t>9,4; 14,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>28,01; 33,37</t>
+          <t>27,85; 33,21</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,78; 11,47</t>
+          <t>7,77; 11,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,03; 13,54</t>
+          <t>10,13; 13,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>35,72; 67,92</t>
+          <t>35,86; 66,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,15; 8,98</t>
+          <t>6,1; 8,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,16; 8,99</t>
+          <t>6,16; 8,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>17,15; 30,47</t>
+          <t>17,47; 30,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,31; 9,67</t>
+          <t>7,3; 9,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,46; 10,75</t>
+          <t>8,37; 10,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>29,29; 48,7</t>
+          <t>29,41; 49,26</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se han realizado alguna vez una prueba para detectar el cancer de colon</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>14172</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>26782</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>333172</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>20509</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11037</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>72036</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>34681</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>37819</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>405209</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>7524; 23602</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>17097; 38807</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>154465; 466614</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>13078; 31062</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5351; 19691</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>61626; 84402</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>24945; 48164</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>27319; 52325</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>219164; 645615</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>39341</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>52395</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>183248</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>34871</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>37840</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>155949</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>74212</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>90235</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>339197</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>27838; 53999</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>39275; 68847</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>161824; 203220</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>24306; 49336</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>26032; 51811</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>139166; 170989</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>58183; 95019</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>73908; 110675</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>313632; 367066</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>32735</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>44932</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>164570</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>33386</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>33240</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>143059</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>66121</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>78172</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>307629</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>21457; 47329</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>32592; 57500</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>149887; 181273</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>23799; 44678</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>23191; 46349</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>47149; 224205</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>49989; 83177</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>62810; 96210</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>152290; 398279</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>27509</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>40759</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>99507</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>21295</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>37182</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>108379</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>48804</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>77942</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>207885</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>18443; 39335</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>31051; 52185</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>86973; 112999</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>13322; 32229</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>25054; 51193</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>95410; 120728</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>35547; 64903</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>61784; 97158</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>188798; 225101</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1615</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>113757</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>164868</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>780497</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>110061</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>119300</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>479423</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>223818</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>284168</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1259920</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>92764; 138282</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>141704; 191956</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>613221; 1137669</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>89516; 131398</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>98308; 141896</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>315898; 550702</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>194216; 254540</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>250835; 316911</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1034627; 1733043</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P44-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P44-Edad-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se han realizado alguna vez una prueba para detectar el cancer de colon</t>
+          <t>Población que se ha realizado alguna vez una prueba para detectar el cancer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1559,7 +1559,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se han realizado alguna vez una prueba para detectar el cancer de colon</t>
+          <t>Población que se ha realizado alguna vez una prueba para detectar el cancer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
